--- a/S1000_Preflight.xlsx
+++ b/S1000_Preflight.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Documents\GitHub\Aerial-Algal-Bloom-Monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan Kirby\GitHub\Aerial-Algal-Bloom-Monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="138">
   <si>
     <t>S1000 Failsafes</t>
   </si>
@@ -327,12 +327,165 @@
       <t>(This will cause problems if not)</t>
     </r>
   </si>
+  <si>
+    <t>Broadcast Observations in "SBP Relay" section of the "Advanced Tab"</t>
+  </si>
+  <si>
+    <t>Mission Planner</t>
+  </si>
+  <si>
+    <t>Connect GCS Telemetry Radio to Laptop</t>
+  </si>
+  <si>
+    <t>Open Mission Planner as Administrator</t>
+  </si>
+  <si>
+    <t>Connect Mission Planner to Vehicle</t>
+  </si>
+  <si>
+    <t>Open "Inject GPS" Tab of "Advanced Features" Menu (ctrl+f)</t>
+  </si>
+  <si>
+    <t>Set Baud to 115200 first, then choose "UDP Host"</t>
+  </si>
+  <si>
+    <t>Enter same port as opened in Piksi Console</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Lift and Lock all arms</t>
+  </si>
+  <si>
+    <t>Push safety button</t>
+  </si>
+  <si>
+    <t>Take lens cap off</t>
+  </si>
+  <si>
+    <t>Turn on camera</t>
+  </si>
+  <si>
+    <t>Set camera settings and install camera w/foam padding</t>
+  </si>
+  <si>
+    <t>Install Camera Battery and SD Card</t>
+  </si>
+  <si>
+    <t>Open all propellers</t>
+  </si>
+  <si>
+    <t>RC Transmitter Charged</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Lower Throttle Stick</t>
+  </si>
+  <si>
+    <t>Switch all switches to "Up" position</t>
+  </si>
+  <si>
+    <t>Upload Mission Plan to Vehicle</t>
+  </si>
+  <si>
+    <t>Pre-Launch</t>
+  </si>
+  <si>
+    <t>Wait for "gpsstatus2" to be 5</t>
+  </si>
+  <si>
+    <t>Click record icon in "Observations" Tab of Piksi Console</t>
+  </si>
+  <si>
+    <t>Confirm site clear for take-off</t>
+  </si>
+  <si>
+    <t>Arm vehicle</t>
+  </si>
+  <si>
+    <t>Raise throttle quickly to 50% throttle</t>
+  </si>
+  <si>
+    <t>At 3 meters switch to "ALT Hold"</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>When ready, switch to "Auto"</t>
+  </si>
+  <si>
+    <t>Confirm Throttle is at Mid-Stick (50%)</t>
+  </si>
+  <si>
+    <t>Monitor Vehicle Status on GCS Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be ready to take control of Vehicle </t>
+  </si>
+  <si>
+    <t>When mission completes, navigate vehicle to launch site</t>
+  </si>
+  <si>
+    <t>Switch vehicle to "Land" mode</t>
+  </si>
+  <si>
+    <t>Confirm vehicle is in "Stabilize" mode</t>
+  </si>
+  <si>
+    <t>When vehicle touches ground, immediately switch to "Stabilize" and disarm</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Immediately disconnect vehicle battery</t>
+  </si>
+  <si>
+    <t>Post-Flight</t>
+  </si>
+  <si>
+    <t>Stop recording in Piksi Console</t>
+  </si>
+  <si>
+    <t>Turn off camera</t>
+  </si>
+  <si>
+    <t>Remove Vehicle Piksi GPS Antenna</t>
+  </si>
+  <si>
+    <t>Fold Props and Lower Arms</t>
+  </si>
+  <si>
+    <t>Connect Vehicle to GCS Laptop via USB</t>
+  </si>
+  <si>
+    <t>Download log</t>
+  </si>
+  <si>
+    <t>Pull SD Card from camera</t>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Push button on IR Trigger to test camera</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +539,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -419,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -781,11 +951,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -804,14 +1012,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -841,24 +1043,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -870,12 +1054,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -884,20 +1062,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -906,34 +1072,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1216,278 +1490,711 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="124" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="3.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="34.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="70"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="53"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="53"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="53"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="53"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="53"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="53"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="53"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="53"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="53"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="53"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="G29" s="36"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="35" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="56" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="G35" s="58"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="74"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="75" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="72" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="73"/>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="68" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+      <c r="G43" s="36"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="64" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="57" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="G47" s="36"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="70"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="36"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="59" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="36"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="59" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="36"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="53" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="36"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="59" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="G56" s="36"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="53" t="s">
         <v>86</v>
       </c>
+      <c r="G57" s="36"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="53"/>
+      <c r="G58" s="36"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="53"/>
+      <c r="G60" s="36"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="36"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="36"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" s="36"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="53"/>
+      <c r="G66" s="36"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="53"/>
+      <c r="G68" s="36"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="53"/>
+      <c r="G70" s="36"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="G72" s="36"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" s="36"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="36"/>
+    </row>
+    <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" s="36"/>
+    </row>
+    <row r="76" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="36"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G79" s="36"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="53"/>
+      <c r="G81" s="36"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G82" s="36"/>
+    </row>
+    <row r="83" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A83" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="53"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="53"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A100" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G101" s="36"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G102" s="36"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G103" s="36"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G104" s="36"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G105" s="36"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G106" s="36"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G107" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1502,72 +2209,72 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.140625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="5"/>
-    <col min="9" max="10" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.1796875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="9.1796875" style="5"/>
+    <col min="9" max="10" width="4.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="12" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:10" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
       <c r="B4" s="6"/>
       <c r="C4" s="3" t="s">
         <v>26</v>
@@ -1576,12 +2283,12 @@
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
       <c r="B5" s="6"/>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -1592,10 +2299,10 @@
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1610,12 +2317,12 @@
       <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
       <c r="B7" s="6"/>
       <c r="C7" s="3" t="s">
         <v>24</v>
@@ -1626,10 +2333,10 @@
       <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1644,10 +2351,10 @@
       <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1662,110 +2369,110 @@
       <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+    <row r="10" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="31">
         <v>975</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="25">
         <v>0</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="37"/>
-    </row>
-    <row r="13" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="22">
         <v>1</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="22">
         <v>4</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="29">
         <v>5</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1780,19 +2487,19 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1800,7 +2507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +2515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1816,7 +2523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
